--- a/aa.xlsx
+++ b/aa.xlsx
@@ -494,7 +494,7 @@
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>0,484283</t>
+          <t>30398,39</t>
         </is>
       </c>
     </row>
@@ -558,17 +558,29 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>litecoin</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>dogecoin</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
           <t>xrp</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>litecoin</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
@@ -576,17 +588,29 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Arkusz9</t>
+          <t>Sheet1</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="n"/>
-      <c r="D2" s="3" t="n"/>
-      <c r="E2" s="3" t="n"/>
+          <t>Arkusz5</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Arkusz5</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Arkusz3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Arkusz8</t>
+        </is>
+      </c>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
@@ -594,17 +618,29 @@
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>a3</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="n"/>
-      <c r="D3" s="3" t="n"/>
-      <c r="E3" s="3" t="n"/>
+          <t>a5</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>a45</t>
+        </is>
+      </c>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
@@ -622,14 +658,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A2:A2"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>30398,39</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -678,14 +722,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A4:A5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0,071180456463</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>94,95</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -762,14 +821,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A45:A45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0,772566</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -790,14 +857,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>0,72346</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0,072419696968</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -494,7 +494,7 @@
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>30398,39</t>
+          <t>30279,36</t>
         </is>
       </c>
     </row>
@@ -563,22 +563,22 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>xrp</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>dogecoin</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>mover</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>xrp</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -598,19 +598,15 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Arkusz3</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>Arkusz5</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz3</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz8</t>
-        </is>
-      </c>
+      <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
@@ -628,19 +624,15 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>a4</t>
+          <t>A8</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>a45</t>
-        </is>
-      </c>
+          <t>a6</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
@@ -658,7 +650,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:A2"/>
+  <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -667,9 +659,16 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>30398,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>1930,87</t>
         </is>
       </c>
     </row>
@@ -722,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A4:A5"/>
+  <dimension ref="A4:A6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -731,16 +730,23 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>0,071180456463</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0,070110464899</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>94,95</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>0,750145</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>0,334842</t>
         </is>
       </c>
     </row>
@@ -830,9 +836,9 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>0,772566</t>
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>0,747834</t>
         </is>
       </c>
     </row>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>30230,76</t>
+          <t>0,06785285687</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>30279,36</t>
+          <t>29796,75</t>
         </is>
       </c>
     </row>
@@ -558,22 +558,22 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>xrp</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>mover</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -591,21 +591,9 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz5</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz3</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz5</t>
-        </is>
-      </c>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
@@ -614,24 +602,12 @@
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>a5</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A8</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>a6</t>
-        </is>
-      </c>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
@@ -668,7 +644,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>1930,87</t>
+          <t>1890,35</t>
         </is>
       </c>
     </row>
@@ -739,14 +715,14 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>0,750145</t>
+          <t>0,750889</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>0,334842</t>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>0,357891</t>
         </is>
       </c>
     </row>
@@ -778,7 +754,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>0,750889</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,06785285687</t>
+          <t>29874,24</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -488,6 +488,13 @@
       <c r="D1" s="3" t="inlineStr">
         <is>
           <t>0,258755</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>29850,12</t>
         </is>
       </c>
     </row>
@@ -558,12 +565,12 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>ethereum</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -591,7 +598,11 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Arkusz3</t>
+        </is>
+      </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
@@ -605,7 +616,11 @@
           <t>A1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>C3</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
@@ -626,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:C8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -638,6 +653,13 @@
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>30398,39</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1894,24</t>
         </is>
       </c>
     </row>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -461,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>29874,24</t>
+          <t>1892,36</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -502,6 +502,13 @@
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>29796,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>0,339243</t>
         </is>
       </c>
     </row>
@@ -565,12 +572,12 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>ethereum</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -588,43 +595,31 @@
           <t>-</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Arkusz3</t>
-        </is>
-      </c>
+      <c r="A2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="n"/>
+      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>C3</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="n"/>
+      <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
@@ -641,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A2:C8"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
@@ -649,17 +644,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>1887,36</t>
+        </is>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>30398,39</t>
+          <t>0,775888</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>1894,24</t>
+          <t>1894,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>29942,99</t>
         </is>
       </c>
     </row>
@@ -667,6 +676,13 @@
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>1890,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>94,53</t>
         </is>
       </c>
     </row>
@@ -737,7 +753,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>0,750889</t>
+          <t>0,339243</t>
         </is>
       </c>
     </row>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>1892,36</t>
+          <t>29041,56</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>29850,12</t>
+          <t>82,53</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BITCOIN</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>LITECOIN</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -604,8 +604,16 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
@@ -614,8 +622,16 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>29041,56</t>
+          <t>29038,98</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>82,53</t>
+          <t>82,52</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>BITCOIN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>LITECOIN</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
@@ -604,16 +604,8 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="A2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
@@ -622,16 +614,8 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>29038,98</t>
+          <t>29031,44</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,14 +494,14 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>82,52</t>
+          <t>1831,15</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>29796,75</t>
+          <t>0,616699</t>
         </is>
       </c>
     </row>
@@ -572,17 +572,17 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>BITCOIN</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ETHEREUM</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -604,9 +604,21 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr"/>
@@ -614,9 +626,21 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1831,15</t>
+          <t>1832,86</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
@@ -614,11 +614,7 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr"/>
@@ -628,7 +624,7 @@
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>A1</t>
+          <t>A2</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -636,11 +632,7 @@
           <t>A2</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
+      <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>29031,44</t>
+          <t>0,160977</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1832,86</t>
+          <t>1866,02</t>
         </is>
       </c>
     </row>
@@ -587,7 +587,7 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>GAMESWIFT</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -615,7 +615,11 @@
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n"/>
@@ -633,7 +637,11 @@
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n"/>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,160977</t>
+          <t>0,224235</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -494,7 +494,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1866,02</t>
+          <t>29860,91</t>
         </is>
       </c>
     </row>
@@ -577,17 +577,17 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>ETHEREUM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>LITECOIN</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>GAMESWIFT</t>
+          <t>MOVER</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -609,12 +609,12 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Sheet1</t>
@@ -628,15 +628,15 @@
     <row r="3" ht="15" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
           <t>A1</t>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,224235</t>
+          <t>342,18</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -577,17 +577,17 @@
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
+          <t>ETHEREUM</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>LITECOIN</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
           <t>-</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LITECOIN</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>MOVER</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -609,17 +609,17 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr"/>
       <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="n"/>
@@ -631,17 +631,17 @@
           <t>A1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr"/>
       <c r="F3" s="3" t="inlineStr"/>
       <c r="G3" s="3" t="n"/>
@@ -671,7 +671,7 @@
     <row r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>1887,36</t>
+          <t>2,632075</t>
         </is>
       </c>
     </row>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -463,52 +463,40 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>342,18</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>1868,22</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>111,31</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>0,258755</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+          <t>0,627401</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>29860,91</t>
+          <t>29466,8</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>0,616699</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
+          <t>83,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>0,339243</t>
+          <t>0,221543</t>
         </is>
       </c>
     </row>
@@ -539,7 +527,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -567,19 +555,19 @@
       <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
+          <t>ETHEREUM</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
           <t>BITCOIN</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>ETHEREUM</t>
-        </is>
-      </c>
       <c r="C1" s="3" t="inlineStr">
         <is>
           <t>LITECOIN</t>
@@ -592,7 +580,7 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>XRP</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
@@ -620,8 +608,12 @@
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
     </row>
@@ -633,17 +625,21 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr"/>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
@@ -662,48 +658,48 @@
   </sheetPr>
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>2,632075</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+          <t>0,627851</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>0,775888</t>
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>1894,75</t>
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="12.8" customHeight="1" s="2">
       <c r="A7" s="3" t="inlineStr">
         <is>
           <t>29942,99</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="12.8" customHeight="1" s="2">
       <c r="A8" s="3" t="inlineStr">
         <is>
           <t>1890,35</t>
         </is>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
         <is>
           <t>94,53</t>
@@ -737,7 +733,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -765,23 +761,23 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="4">
+    <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>0,070110464899</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>0,339243</t>
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="12.8" customHeight="1" s="2">
       <c r="A6" s="3" t="inlineStr">
         <is>
           <t>0,357891</t>
@@ -815,9 +811,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>0,750889</t>
@@ -851,7 +847,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -879,9 +875,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="45">
+    <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
         <is>
           <t>0,747834</t>
@@ -915,16 +911,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="3">
+    <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
           <t>0,72346</t>
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
           <t>0,072419696968</t>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,627401</t>
+          <t>0,001705</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -482,14 +482,14 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>29466,8</t>
+          <t>26388,38</t>
         </is>
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>83,67</t>
+          <t>63,52</t>
         </is>
       </c>
     </row>
@@ -575,12 +575,12 @@
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MOVER</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>AMP</t>
         </is>
       </c>
       <c r="F1" s="3" t="inlineStr">
@@ -607,7 +607,11 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Sheet1</t>
@@ -633,7 +637,11 @@
           <t>A3</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
           <t>A1</t>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -463,16 +463,16 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,001705</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -482,7 +482,7 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>26388,38</t>
+          <t>0,005513</t>
         </is>
       </c>
     </row>
@@ -527,7 +527,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -551,102 +551,46 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>ETHEREUM</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
         <is>
-          <t>BITCOIN</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>LITECOIN</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>MOVER</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>AMP</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
           <t>-</t>
         </is>
       </c>
+      <c r="C1" s="3" t="n"/>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="A2" s="3" t="inlineStr"/>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="n"/>
+      <c r="D2" s="3" t="n"/>
+      <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
       <c r="G2" s="3" t="n"/>
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>A2</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A3</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="3" t="n"/>
+      <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
@@ -664,13 +608,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -683,6 +627,11 @@
       <c r="A2" s="3" t="inlineStr">
         <is>
           <t>0,775888</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>0,146</t>
         </is>
       </c>
     </row>
@@ -741,7 +690,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -769,7 +718,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -819,7 +768,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -855,7 +804,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -883,7 +832,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
@@ -919,7 +868,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -472,7 +472,7 @@
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>1592,56</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -482,7 +482,7 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>0,005513</t>
+          <t>1593,64</t>
         </is>
       </c>
     </row>

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -461,18 +461,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>1592,56</t>
+          <t>25093,43</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -482,7 +482,7 @@
     <row r="2" ht="12.8" customHeight="1" s="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>1593,64</t>
+          <t>2,203865</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,14 @@
     <row r="5" ht="12.8" customHeight="1" s="2">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>0,221543</t>
+          <t>897,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="12.8" customHeight="1" s="2">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>1592,24</t>
         </is>
       </c>
     </row>
@@ -527,7 +534,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -549,25 +556,21 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>bitcoin</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="n"/>
       <c r="C1" s="3" t="n"/>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
@@ -576,8 +579,12 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr"/>
-      <c r="B2" s="3" t="inlineStr"/>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Sheet1</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n"/>
       <c r="C2" s="3" t="n"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
@@ -586,14 +593,28 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr"/>
-      <c r="B3" s="3" t="inlineStr"/>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>A1</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n"/>
       <c r="C3" s="3" t="n"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="3" t="n"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
@@ -614,12 +635,12 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>0,627851</t>
+          <t>1592,24</t>
         </is>
       </c>
     </row>
@@ -636,9 +657,21 @@
       </c>
     </row>
     <row r="3" ht="12.8" customHeight="1" s="2">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>114902,49</t>
+        </is>
+      </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
           <t>1894,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>0,137275</t>
         </is>
       </c>
     </row>
@@ -690,7 +723,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -718,7 +751,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="4" ht="12.8" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
@@ -768,7 +801,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -804,7 +837,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -832,7 +865,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="45" ht="12.8" customHeight="1" s="2">
       <c r="A45" s="3" t="inlineStr">
@@ -868,7 +901,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -464,15 +464,15 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A1:B5 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>25093,43</t>
+          <t>26461,4</t>
         </is>
       </c>
       <c r="B1" s="3" t="n"/>
@@ -497,6 +497,13 @@
       <c r="A5" s="3" t="inlineStr">
         <is>
           <t>897,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -531,10 +538,10 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData/>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -559,10 +566,10 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.8046875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.82421875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -570,8 +577,16 @@
           <t>bitcoin</t>
         </is>
       </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
@@ -584,8 +599,8 @@
           <t>Sheet1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n"/>
-      <c r="C2" s="3" t="n"/>
+      <c r="B2" s="3" t="inlineStr"/>
+      <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="n"/>
       <c r="E2" s="3" t="n"/>
       <c r="F2" s="3" t="n"/>
@@ -598,8 +613,8 @@
           <t>A1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n"/>
-      <c r="C3" s="3" t="n"/>
+      <c r="B3" s="3" t="inlineStr"/>
+      <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="n"/>
       <c r="E3" s="3" t="n"/>
       <c r="F3" s="3" t="n"/>
@@ -609,13 +624,22 @@
     <row r="4" ht="15" customHeight="1" s="2">
       <c r="A4" s="3" t="inlineStr">
         <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n"/>
-      <c r="C4" s="3" t="n"/>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
       <c r="D4" s="3" t="n"/>
     </row>
+    <row r="5" ht="12.8" customHeight="1" s="2"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -632,10 +656,10 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.8" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -717,60 +741,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="S4:S4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12 Strona &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A4:A6"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="4" ht="12.8" customHeight="1" s="2">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>0,070110464899</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="12.8" customHeight="1" s="2">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>0,339243</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="12.8" customHeight="1" s="2">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>0,357891</t>
+    <row r="4">
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>5,2908</t>
         </is>
       </c>
     </row>
@@ -789,24 +771,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A4:A6"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="1" ht="12.8" customHeight="1" s="2">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>0,750889</t>
+    <row r="4" ht="12.8" customHeight="1" s="2">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>0,070110464899</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.8" customHeight="1" s="2">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>0,339243</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.8" customHeight="1" s="2">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>0,357891</t>
         </is>
       </c>
     </row>
@@ -825,7 +821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -834,43 +830,15 @@
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
-  <sheetData/>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12 &amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12 Strona &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A45:A45"/>
-  <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
-    <row r="45" ht="12.8" customHeight="1" s="2">
-      <c r="A45" s="3" t="inlineStr">
-        <is>
-          <t>0,747834</t>
+    <row r="1" ht="12.8" customHeight="1" s="2">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>0,750889</t>
         </is>
       </c>
     </row>
@@ -889,6 +857,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="J7:J7"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="7" ht="12.8" customHeight="1" s="2">
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>0,114718</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12 Strona &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A45:A45"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="45" ht="12.8" customHeight="1" s="2">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>0,747834</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12 Strona &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr filterMode="0">
@@ -898,10 +938,10 @@
   <dimension ref="A3:A4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="3" ht="12.8" customHeight="1" s="2">
       <c r="A3" s="3" t="inlineStr">

--- a/aa.xlsx
+++ b/aa.xlsx
@@ -574,7 +574,7 @@
     <row r="1" ht="15" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>bitcoin</t>
+          <t>-</t>
         </is>
       </c>
       <c r="B1" s="3" t="inlineStr">
@@ -594,11 +594,7 @@
       <c r="H1" s="3" t="n"/>
     </row>
     <row r="2" ht="12.8" customHeight="1" s="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Sheet1</t>
-        </is>
-      </c>
+      <c r="A2" s="3" t="inlineStr"/>
       <c r="B2" s="3" t="inlineStr"/>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="n"/>
@@ -608,11 +604,7 @@
       <c r="H2" s="3" t="n"/>
     </row>
     <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>A1</t>
-        </is>
-      </c>
+      <c r="A3" s="3" t="inlineStr"/>
       <c r="B3" s="3" t="inlineStr"/>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="n"/>
